--- a/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_message/hzero-data-message.xlsx
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-18</t>
+    <t>2020-06-23</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2056,37 +2056,39 @@
     <t>代码库权限申请通知</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;您有待审批的权限申请，请在代码库-权限审批页面审批。&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-9</t>
-  </si>
-  <si>
-    <t>RDUCM.MEMBER_EXPIRE_NOTICE.WEB</t>
-  </si>
-  <si>
-    <t>代码库成员权限到期提醒模板</t>
-  </si>
-  <si>
-    <t>代码库成员的权限即将到期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;以下成员的权限即将到期，请及时处理&lt;/p&gt;
-&lt;p&gt;${membersInfo}&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;项目&amp;ldquo;${projectName}&amp;rdquo;, 您有待审批的权限申请，请在代码库-权限审批页面审批。&lt;/p&gt;
 &lt;p&gt;
 &lt;audio controls="controls" style="display: none;"&gt;&amp;nbsp;&lt;/audio&gt;
 &lt;/p&gt;
 </t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-9</t>
+  </si>
+  <si>
+    <t>RDUCM.MEMBER_EXPIRE_NOTICE.WEB</t>
+  </si>
+  <si>
+    <t>代码库成员权限到期提醒模板</t>
+  </si>
+  <si>
+    <t>代码库成员的权限即将到期</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;以下成员的权限即将到期，请及时处理&lt;/p&gt;
+&lt;p&gt;${membersInfo}&lt;/p&gt;
+&lt;p&gt;
+&lt;audio controls="controls" style="display: none;"&gt;&amp;nbsp;&lt;/audio&gt;
+&lt;/p&gt;</t>
   </si>
   <si>
     <t>消息模板参数</t>
